--- a/public/import-templates/users-template.xlsx
+++ b/public/import-templates/users-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitch\OneDrive\Desktop\import-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28B2A3F-3D9C-41A0-B287-0BA79F55114B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67816F71-CD9C-4750-BAA2-0F64E0D0887A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{461C9B73-A3C4-4702-B5CA-F5EAEAB9D89C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>name</t>
   </si>
@@ -49,16 +49,36 @@
   </si>
   <si>
     <t>agency_id</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>CLSU</t>
+  </si>
+  <si>
+    <t>CMI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,13 +101,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -400,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860A073C-76FA-4C56-B520-8CA184261F42}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,7 +459,27 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{6AD07B17-6776-418A-91C5-10755C7ACDCD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>